--- a/averages.xlsx
+++ b/averages.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D100"/>
+  <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,13 +455,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>49.04329445440998</v>
+        <v>48.89901958084814</v>
       </c>
       <c r="C2" t="n">
-        <v>17.16239172410526</v>
+        <v>17.10448469182211</v>
       </c>
       <c r="D2" t="n">
-        <v>6.662060689676717</v>
+        <v>6.620015342443432</v>
       </c>
     </row>
     <row r="3">
@@ -469,13 +469,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>49.18756932797183</v>
+        <v>49.04329445440998</v>
       </c>
       <c r="C3" t="n">
-        <v>17.2202987563884</v>
+        <v>17.16239172410526</v>
       </c>
       <c r="D3" t="n">
-        <v>6.704106036910002</v>
+        <v>6.662060689676717</v>
       </c>
     </row>
     <row r="4">
@@ -483,13 +483,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>49.33184420153369</v>
+        <v>49.18756932797183</v>
       </c>
       <c r="C4" t="n">
-        <v>17.27820578867153</v>
+        <v>17.2202987563884</v>
       </c>
       <c r="D4" t="n">
-        <v>6.746151384143286</v>
+        <v>6.704106036910002</v>
       </c>
     </row>
     <row r="5">
@@ -497,13 +497,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>49.47611907509553</v>
+        <v>49.33184420153369</v>
       </c>
       <c r="C5" t="n">
-        <v>17.33611282095467</v>
+        <v>17.27820578867153</v>
       </c>
       <c r="D5" t="n">
-        <v>6.788196731376571</v>
+        <v>6.746151384143286</v>
       </c>
     </row>
     <row r="6">
@@ -511,13 +511,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>49.62039394865737</v>
+        <v>49.47611907509553</v>
       </c>
       <c r="C6" t="n">
-        <v>17.39401985323781</v>
+        <v>17.33611282095467</v>
       </c>
       <c r="D6" t="n">
-        <v>6.830242078609856</v>
+        <v>6.788196731376572</v>
       </c>
     </row>
     <row r="7">
@@ -525,13 +525,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>49.78648173708517</v>
+        <v>49.62039394865737</v>
       </c>
       <c r="C7" t="n">
-        <v>17.46028647096992</v>
+        <v>17.39401985323781</v>
       </c>
       <c r="D7" t="n">
-        <v>6.877547044826414</v>
+        <v>6.830242078609856</v>
       </c>
     </row>
     <row r="8">
@@ -539,13 +539,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>49.92981463755117</v>
+        <v>49.78648173708517</v>
       </c>
       <c r="C8" t="n">
-        <v>17.55483530439603</v>
+        <v>17.46028647096992</v>
       </c>
       <c r="D8" t="n">
-        <v>6.938794444032485</v>
+        <v>6.877547044826414</v>
       </c>
     </row>
     <row r="9">
@@ -553,13 +553,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>50.08168883759387</v>
+        <v>49.92981463755117</v>
       </c>
       <c r="C9" t="n">
-        <v>17.70638865748241</v>
+        <v>17.55483530439603</v>
       </c>
       <c r="D9" t="n">
-        <v>7.030444661260229</v>
+        <v>6.938794444032484</v>
       </c>
     </row>
     <row r="10">
@@ -567,13 +567,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>50.30723163899716</v>
+        <v>50.08168883759387</v>
       </c>
       <c r="C10" t="n">
-        <v>17.85489894508621</v>
+        <v>17.70638865748241</v>
       </c>
       <c r="D10" t="n">
-        <v>7.119233007900307</v>
+        <v>7.030444661260229</v>
       </c>
     </row>
     <row r="11">
@@ -581,13 +581,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>50.49159277860176</v>
+        <v>50.30723163899716</v>
       </c>
       <c r="C11" t="n">
-        <v>17.99051751492783</v>
+        <v>17.85489894508621</v>
       </c>
       <c r="D11" t="n">
-        <v>7.200776369464472</v>
+        <v>7.119233007900307</v>
       </c>
     </row>
     <row r="12">
@@ -595,13 +595,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>50.67595391820637</v>
+        <v>50.49159277860176</v>
       </c>
       <c r="C12" t="n">
-        <v>18.12613608476944</v>
+        <v>17.99051751492783</v>
       </c>
       <c r="D12" t="n">
-        <v>7.282319731028636</v>
+        <v>7.200776369464472</v>
       </c>
     </row>
     <row r="13">
@@ -609,13 +609,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>50.81811166665423</v>
+        <v>50.67595391820637</v>
       </c>
       <c r="C13" t="n">
-        <v>18.22806958468085</v>
+        <v>18.12613608476944</v>
       </c>
       <c r="D13" t="n">
-        <v>7.343067609405881</v>
+        <v>7.282319731028636</v>
       </c>
     </row>
     <row r="14">
@@ -623,13 +623,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>50.94971268908642</v>
+        <v>50.81811166665423</v>
       </c>
       <c r="C14" t="n">
-        <v>18.33121593797217</v>
+        <v>18.22806958468085</v>
       </c>
       <c r="D14" t="n">
-        <v>7.404769838301451</v>
+        <v>7.34306760940588</v>
       </c>
     </row>
     <row r="15">
@@ -637,13 +637,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>51.07741881875794</v>
+        <v>50.94971268908642</v>
       </c>
       <c r="C15" t="n">
-        <v>18.40589859175185</v>
+        <v>18.33121593797217</v>
       </c>
       <c r="D15" t="n">
-        <v>7.451375168322669</v>
+        <v>7.404769838301451</v>
       </c>
     </row>
     <row r="16">
@@ -651,13 +651,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>51.2128099443604</v>
+        <v>51.07741881875794</v>
       </c>
       <c r="C16" t="n">
-        <v>18.46333360190835</v>
+        <v>18.40589859175185</v>
       </c>
       <c r="D16" t="n">
-        <v>7.488827806686172</v>
+        <v>7.451375168322669</v>
       </c>
     </row>
     <row r="17">
@@ -665,13 +665,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>51.28768540054888</v>
+        <v>51.2128099443604</v>
       </c>
       <c r="C17" t="n">
-        <v>18.49340857724394</v>
+        <v>18.46333360190835</v>
       </c>
       <c r="D17" t="n">
-        <v>7.510474438379485</v>
+        <v>7.488827806686173</v>
       </c>
     </row>
     <row r="18">
@@ -679,13 +679,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>51.37299287453488</v>
+        <v>51.28768540054888</v>
       </c>
       <c r="C18" t="n">
-        <v>18.53418797574051</v>
+        <v>18.49340857724394</v>
       </c>
       <c r="D18" t="n">
-        <v>7.539286072316191</v>
+        <v>7.510474438379485</v>
       </c>
     </row>
     <row r="19">
@@ -693,13 +693,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>51.47990463756163</v>
+        <v>51.37299287453488</v>
       </c>
       <c r="C19" t="n">
-        <v>18.58985227698802</v>
+        <v>18.53418797574051</v>
       </c>
       <c r="D19" t="n">
-        <v>7.577753099748858</v>
+        <v>7.539286072316191</v>
       </c>
     </row>
     <row r="20">
@@ -707,13 +707,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>51.61621472877643</v>
+        <v>51.47990463756163</v>
       </c>
       <c r="C20" t="n">
-        <v>18.65853263728139</v>
+        <v>18.58985227698802</v>
       </c>
       <c r="D20" t="n">
-        <v>7.625149444222121</v>
+        <v>7.577753099748858</v>
       </c>
     </row>
     <row r="21">
@@ -721,13 +721,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>51.76230282074557</v>
+        <v>51.61621472877642</v>
       </c>
       <c r="C21" t="n">
-        <v>18.73080585474642</v>
+        <v>18.65853263728139</v>
       </c>
       <c r="D21" t="n">
-        <v>7.674484188289617</v>
+        <v>7.625149444222122</v>
       </c>
     </row>
     <row r="22">
@@ -735,13 +735,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>51.89367439367732</v>
+        <v>51.76230282074555</v>
       </c>
       <c r="C22" t="n">
-        <v>18.81525385388724</v>
+        <v>18.73080585474642</v>
       </c>
       <c r="D22" t="n">
-        <v>7.730343748492012</v>
+        <v>7.674484188289617</v>
       </c>
     </row>
     <row r="23">
@@ -749,13 +749,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>52.0299363195311</v>
+        <v>51.89367439367732</v>
       </c>
       <c r="C23" t="n">
-        <v>18.89052223637784</v>
+        <v>18.81525385388724</v>
       </c>
       <c r="D23" t="n">
-        <v>7.780660864356987</v>
+        <v>7.730343748492012</v>
       </c>
     </row>
     <row r="24">
@@ -763,13 +763,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>52.18534740607418</v>
+        <v>52.0299363195311</v>
       </c>
       <c r="C24" t="n">
-        <v>18.95482591049261</v>
+        <v>18.89052223637784</v>
       </c>
       <c r="D24" t="n">
-        <v>7.824471265642689</v>
+        <v>7.780660864356988</v>
       </c>
     </row>
     <row r="25">
@@ -777,13 +777,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>52.34821249792405</v>
+        <v>52.18534740607418</v>
       </c>
       <c r="C25" t="n">
-        <v>19.01897697236165</v>
+        <v>18.95482591049261</v>
       </c>
       <c r="D25" t="n">
-        <v>7.86621199399037</v>
+        <v>7.82447126564269</v>
       </c>
     </row>
     <row r="26">
@@ -791,13 +791,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>52.4970509960926</v>
+        <v>52.34821249792405</v>
       </c>
       <c r="C26" t="n">
-        <v>19.08083885159157</v>
+        <v>19.01897697236165</v>
       </c>
       <c r="D26" t="n">
-        <v>7.906211471853037</v>
+        <v>7.86621199399037</v>
       </c>
     </row>
     <row r="27">
@@ -805,13 +805,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>52.61937600051166</v>
+        <v>52.4970509960926</v>
       </c>
       <c r="C27" t="n">
-        <v>19.12683611596793</v>
+        <v>19.08083885159157</v>
       </c>
       <c r="D27" t="n">
-        <v>7.935882780803313</v>
+        <v>7.906211471853038</v>
       </c>
     </row>
     <row r="28">
@@ -819,13 +819,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>52.70632700538934</v>
+        <v>52.61937600051166</v>
       </c>
       <c r="C28" t="n">
-        <v>19.15106931363364</v>
+        <v>19.12683611596793</v>
       </c>
       <c r="D28" t="n">
-        <v>7.953975050876478</v>
+        <v>7.935882780803313</v>
       </c>
     </row>
     <row r="29">
@@ -833,13 +833,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>52.72896777916756</v>
+        <v>52.70632700538934</v>
       </c>
       <c r="C29" t="n">
-        <v>19.12993650581196</v>
+        <v>19.15106931363364</v>
       </c>
       <c r="D29" t="n">
-        <v>7.942362512085992</v>
+        <v>7.953975050876478</v>
       </c>
     </row>
     <row r="30">
@@ -847,13 +847,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>52.677005425747</v>
+        <v>52.72896777916756</v>
       </c>
       <c r="C30" t="n">
-        <v>19.09975162821242</v>
+        <v>19.12993650581196</v>
       </c>
       <c r="D30" t="n">
-        <v>7.926227342891436</v>
+        <v>7.942362512085992</v>
       </c>
     </row>
     <row r="31">
@@ -861,13 +861,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>52.60388722644525</v>
+        <v>52.677005425747</v>
       </c>
       <c r="C31" t="n">
-        <v>19.05612811027885</v>
+        <v>19.09975162821242</v>
       </c>
       <c r="D31" t="n">
-        <v>7.902411850284336</v>
+        <v>7.926227342891436</v>
       </c>
     </row>
     <row r="32">
@@ -875,13 +875,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>52.55399891140552</v>
+        <v>52.60388722644525</v>
       </c>
       <c r="C32" t="n">
-        <v>19.01396510291909</v>
+        <v>19.05612811027885</v>
       </c>
       <c r="D32" t="n">
-        <v>7.879070875397367</v>
+        <v>7.902411850284336</v>
       </c>
     </row>
     <row r="33">
@@ -889,13 +889,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>52.49474128629014</v>
+        <v>52.55399891140553</v>
       </c>
       <c r="C33" t="n">
-        <v>18.97246238993112</v>
+        <v>19.01396510291909</v>
       </c>
       <c r="D33" t="n">
-        <v>7.856006778135574</v>
+        <v>7.879070875397367</v>
       </c>
     </row>
     <row r="34">
@@ -903,13 +903,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>52.43548366117475</v>
+        <v>52.49474128629014</v>
       </c>
       <c r="C34" t="n">
-        <v>18.93095967694315</v>
+        <v>18.97246238993113</v>
       </c>
       <c r="D34" t="n">
-        <v>7.832942680873781</v>
+        <v>7.856006778135574</v>
       </c>
     </row>
     <row r="35">
@@ -917,13 +917,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>52.57605806447859</v>
+        <v>52.43548366117474</v>
       </c>
       <c r="C35" t="n">
-        <v>18.99852171484137</v>
+        <v>18.93095967694315</v>
       </c>
       <c r="D35" t="n">
-        <v>7.870875768932843</v>
+        <v>7.832942680873781</v>
       </c>
     </row>
     <row r="36">
@@ -931,13 +931,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>52.71647364803967</v>
+        <v>52.57605806447859</v>
       </c>
       <c r="C36" t="n">
-        <v>19.06654083945751</v>
+        <v>18.99852171484137</v>
       </c>
       <c r="D36" t="n">
-        <v>7.909053447746159</v>
+        <v>7.870875768932842</v>
       </c>
     </row>
     <row r="37">
@@ -945,13 +945,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>52.88776255395986</v>
+        <v>52.71647364803967</v>
       </c>
       <c r="C37" t="n">
-        <v>19.16542337596212</v>
+        <v>19.06654083945751</v>
       </c>
       <c r="D37" t="n">
-        <v>7.96429798113777</v>
+        <v>7.909053447746158</v>
       </c>
     </row>
     <row r="38">
@@ -959,13 +959,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>53.1413087550772</v>
+        <v>52.88776255395986</v>
       </c>
       <c r="C38" t="n">
-        <v>19.30223142454811</v>
+        <v>19.16542337596211</v>
       </c>
       <c r="D38" t="n">
-        <v>8.043498536551423</v>
+        <v>7.96429798113777</v>
       </c>
     </row>
     <row r="39">
@@ -973,13 +973,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>53.42014157061001</v>
+        <v>53.1413087550772</v>
       </c>
       <c r="C39" t="n">
-        <v>19.44064002278456</v>
+        <v>19.30223142454811</v>
       </c>
       <c r="D39" t="n">
-        <v>8.123413845013504</v>
+        <v>8.043498536551423</v>
       </c>
     </row>
     <row r="40">
@@ -987,13 +987,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>53.61024283733259</v>
+        <v>53.42014157061001</v>
       </c>
       <c r="C40" t="n">
-        <v>19.62369458448456</v>
+        <v>19.44064002278456</v>
       </c>
       <c r="D40" t="n">
-        <v>8.233686646406149</v>
+        <v>8.123413845013502</v>
       </c>
     </row>
     <row r="41">
@@ -1001,13 +1001,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>53.73869507281068</v>
+        <v>53.61024283733259</v>
       </c>
       <c r="C41" t="n">
-        <v>19.80784193622585</v>
+        <v>19.62369458448456</v>
       </c>
       <c r="D41" t="n">
-        <v>8.346177308705727</v>
+        <v>8.23368664640615</v>
       </c>
     </row>
     <row r="42">
@@ -1015,13 +1015,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>53.79999083784899</v>
+        <v>53.73869507281068</v>
       </c>
       <c r="C42" t="n">
-        <v>19.95777180838177</v>
+        <v>19.80784193622585</v>
       </c>
       <c r="D42" t="n">
-        <v>8.43965557894173</v>
+        <v>8.346177308705727</v>
       </c>
     </row>
     <row r="43">
@@ -1029,13 +1029,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>53.86261189072569</v>
+        <v>53.79999083784899</v>
       </c>
       <c r="C43" t="n">
-        <v>20.04672352791382</v>
+        <v>19.95777180838177</v>
       </c>
       <c r="D43" t="n">
-        <v>8.494182805641222</v>
+        <v>8.43965557894173</v>
       </c>
     </row>
     <row r="44">
@@ -1043,13 +1043,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>53.94825564907338</v>
+        <v>53.86261189072569</v>
       </c>
       <c r="C44" t="n">
-        <v>20.11598314222583</v>
+        <v>20.04672352791382</v>
       </c>
       <c r="D44" t="n">
-        <v>8.535885158009059</v>
+        <v>8.494182805641222</v>
       </c>
     </row>
     <row r="45">
@@ -1057,13 +1057,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>54.0577079150836</v>
+        <v>53.94825564907338</v>
       </c>
       <c r="C45" t="n">
-        <v>20.18790454298005</v>
+        <v>20.11598314222583</v>
       </c>
       <c r="D45" t="n">
-        <v>8.579308403724671</v>
+        <v>8.535885158009059</v>
       </c>
     </row>
     <row r="46">
@@ -1071,13 +1071,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>54.18521161370982</v>
+        <v>54.0577079150836</v>
       </c>
       <c r="C46" t="n">
-        <v>20.25974855771108</v>
+        <v>20.18790454298005</v>
       </c>
       <c r="D46" t="n">
-        <v>8.623040901671008</v>
+        <v>8.579308403724671</v>
       </c>
     </row>
     <row r="47">
@@ -1085,13 +1085,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>54.30718641809446</v>
+        <v>54.18521161370982</v>
       </c>
       <c r="C47" t="n">
-        <v>20.31941029041153</v>
+        <v>20.25974855771108</v>
       </c>
       <c r="D47" t="n">
-        <v>8.659413557270447</v>
+        <v>8.623040901671008</v>
       </c>
     </row>
     <row r="48">
@@ -1099,13 +1099,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>54.53886842958887</v>
+        <v>54.30718641809446</v>
       </c>
       <c r="C48" t="n">
-        <v>20.34481716524823</v>
+        <v>20.31941029041153</v>
       </c>
       <c r="D48" t="n">
-        <v>8.674436553930882</v>
+        <v>8.659413557270447</v>
       </c>
     </row>
     <row r="49">
@@ -1113,13 +1113,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>54.79575068203359</v>
+        <v>54.53886842958887</v>
       </c>
       <c r="C49" t="n">
-        <v>20.3756418731319</v>
+        <v>20.34481716524823</v>
       </c>
       <c r="D49" t="n">
-        <v>8.692814949612302</v>
+        <v>8.674436553930882</v>
       </c>
     </row>
     <row r="50">
@@ -1127,13 +1127,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>55.05263293447831</v>
+        <v>54.79575068203359</v>
       </c>
       <c r="C50" t="n">
-        <v>20.40646658101558</v>
+        <v>20.3756418731319</v>
       </c>
       <c r="D50" t="n">
-        <v>8.711193345293724</v>
+        <v>8.692814949612302</v>
       </c>
     </row>
     <row r="51">
@@ -1141,13 +1141,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>55.30099638491893</v>
+        <v>55.05263293447831</v>
       </c>
       <c r="C51" t="n">
-        <v>20.43738097476016</v>
+        <v>20.40646658101558</v>
       </c>
       <c r="D51" t="n">
-        <v>8.730440395291053</v>
+        <v>8.711193345293724</v>
       </c>
     </row>
     <row r="52">
@@ -1155,13 +1155,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>55.54084103335543</v>
+        <v>55.30099638491893</v>
       </c>
       <c r="C52" t="n">
-        <v>20.46838505436567</v>
+        <v>20.43738097476016</v>
       </c>
       <c r="D52" t="n">
-        <v>8.750556099604289</v>
+        <v>8.730440395291053</v>
       </c>
     </row>
     <row r="53">
@@ -1169,13 +1169,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>55.78068568179194</v>
+        <v>55.54084103335543</v>
       </c>
       <c r="C53" t="n">
-        <v>20.49938913397117</v>
+        <v>20.46838505436567</v>
       </c>
       <c r="D53" t="n">
-        <v>8.770671803917525</v>
+        <v>8.750556099604289</v>
       </c>
     </row>
     <row r="54">
@@ -1183,13 +1183,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>56.00730636790029</v>
+        <v>55.78068568179194</v>
       </c>
       <c r="C54" t="n">
-        <v>20.52721493040533</v>
+        <v>20.49938913397117</v>
       </c>
       <c r="D54" t="n">
-        <v>8.788910283148244</v>
+        <v>8.770671803917525</v>
       </c>
     </row>
     <row r="55">
@@ -1197,13 +1197,13 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>56.2234125992856</v>
+        <v>56.00730636790029</v>
       </c>
       <c r="C55" t="n">
-        <v>20.56726623727051</v>
+        <v>20.52721493040533</v>
       </c>
       <c r="D55" t="n">
-        <v>8.814749568519373</v>
+        <v>8.788910283148246</v>
       </c>
     </row>
     <row r="56">
@@ -1211,13 +1211,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>56.43869665990471</v>
+        <v>56.2234125992856</v>
       </c>
       <c r="C56" t="n">
-        <v>20.56349829901203</v>
+        <v>20.56726623727051</v>
       </c>
       <c r="D56" t="n">
-        <v>8.811012547338407</v>
+        <v>8.814749568519373</v>
       </c>
     </row>
     <row r="57">
@@ -1225,13 +1225,13 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>56.63336143113015</v>
+        <v>56.43869665990471</v>
       </c>
       <c r="C57" t="n">
-        <v>20.56847853094048</v>
+        <v>20.56349829901203</v>
       </c>
       <c r="D57" t="n">
-        <v>8.812944891470872</v>
+        <v>8.811012547338407</v>
       </c>
     </row>
     <row r="58">
@@ -1239,13 +1239,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>56.80343726817483</v>
+        <v>56.63336143113015</v>
       </c>
       <c r="C58" t="n">
-        <v>20.56822971767058</v>
+        <v>20.56847853094048</v>
       </c>
       <c r="D58" t="n">
-        <v>8.811683584567923</v>
+        <v>8.812944891470874</v>
       </c>
     </row>
     <row r="59">
@@ -1253,13 +1253,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>56.96947066920911</v>
+        <v>56.80343726817483</v>
       </c>
       <c r="C59" t="n">
-        <v>20.56688301189507</v>
+        <v>20.56822971767058</v>
       </c>
       <c r="D59" t="n">
-        <v>8.809950323206051</v>
+        <v>8.811683584567923</v>
       </c>
     </row>
     <row r="60">
@@ -1267,13 +1267,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>57.13140055260986</v>
+        <v>56.96947066920912</v>
       </c>
       <c r="C60" t="n">
-        <v>20.55623808741283</v>
+        <v>20.56688301189507</v>
       </c>
       <c r="D60" t="n">
-        <v>8.803232002495907</v>
+        <v>8.809950323206055</v>
       </c>
     </row>
     <row r="61">
@@ -1281,13 +1281,13 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>57.29796080232875</v>
+        <v>57.13140055260986</v>
       </c>
       <c r="C61" t="n">
-        <v>20.53201911265132</v>
+        <v>20.55623808741283</v>
       </c>
       <c r="D61" t="n">
-        <v>8.787833947861067</v>
+        <v>8.803232002495907</v>
       </c>
     </row>
     <row r="62">
@@ -1295,13 +1295,13 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>57.47947213448207</v>
+        <v>57.29796080232875</v>
       </c>
       <c r="C62" t="n">
-        <v>20.50066315843226</v>
+        <v>20.53201911265132</v>
       </c>
       <c r="D62" t="n">
-        <v>8.767610998913685</v>
+        <v>8.787833947861067</v>
       </c>
     </row>
     <row r="63">
@@ -1309,13 +1309,13 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>57.66874782165822</v>
+        <v>57.47947213448207</v>
       </c>
       <c r="C63" t="n">
-        <v>20.48394973688043</v>
+        <v>20.50066315843225</v>
       </c>
       <c r="D63" t="n">
-        <v>8.757387870486239</v>
+        <v>8.767610998913685</v>
       </c>
     </row>
     <row r="64">
@@ -1323,13 +1323,13 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>57.87519911972007</v>
+        <v>57.66874782165822</v>
       </c>
       <c r="C64" t="n">
-        <v>20.47626523075526</v>
+        <v>20.48394973688044</v>
       </c>
       <c r="D64" t="n">
-        <v>8.752827948740583</v>
+        <v>8.757387870486239</v>
       </c>
     </row>
     <row r="65">
@@ -1337,13 +1337,13 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>58.04623783753641</v>
+        <v>57.87519911972007</v>
       </c>
       <c r="C65" t="n">
-        <v>20.50590132116436</v>
+        <v>20.47626523075526</v>
       </c>
       <c r="D65" t="n">
-        <v>8.772481809215211</v>
+        <v>8.752827948740583</v>
       </c>
     </row>
     <row r="66">
@@ -1351,13 +1351,13 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>58.17974795976558</v>
+        <v>58.04623783753641</v>
       </c>
       <c r="C66" t="n">
-        <v>20.55662661372324</v>
+        <v>20.50590132116436</v>
       </c>
       <c r="D66" t="n">
-        <v>8.803728935127774</v>
+        <v>8.772481809215211</v>
       </c>
     </row>
     <row r="67">
@@ -1365,13 +1365,13 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>58.31081338549346</v>
+        <v>58.17974795976558</v>
       </c>
       <c r="C67" t="n">
-        <v>20.60863388364445</v>
+        <v>20.55662661372324</v>
       </c>
       <c r="D67" t="n">
-        <v>8.835728972370394</v>
+        <v>8.803728935127774</v>
       </c>
     </row>
     <row r="68">
@@ -1379,13 +1379,13 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>58.52741770984632</v>
+        <v>58.31081338549347</v>
       </c>
       <c r="C68" t="n">
-        <v>20.69166331538193</v>
+        <v>20.60863388364445</v>
       </c>
       <c r="D68" t="n">
-        <v>8.8884103392899</v>
+        <v>8.835728972370394</v>
       </c>
     </row>
     <row r="69">
@@ -1393,13 +1393,13 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>58.74402203419918</v>
+        <v>58.52741770984632</v>
       </c>
       <c r="C69" t="n">
-        <v>20.77469274711943</v>
+        <v>20.69166331538193</v>
       </c>
       <c r="D69" t="n">
-        <v>8.941091706209411</v>
+        <v>8.888410339289901</v>
       </c>
     </row>
     <row r="70">
@@ -1407,13 +1407,13 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>58.97337660520546</v>
+        <v>58.74402203419918</v>
       </c>
       <c r="C70" t="n">
-        <v>20.85526410676376</v>
+        <v>20.77469274711943</v>
       </c>
       <c r="D70" t="n">
-        <v>8.991174332706928</v>
+        <v>8.941091706209411</v>
       </c>
     </row>
     <row r="71">
@@ -1421,13 +1421,13 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>59.26645686448219</v>
+        <v>58.97337660520546</v>
       </c>
       <c r="C71" t="n">
-        <v>20.94082998998629</v>
+        <v>20.85526410676376</v>
       </c>
       <c r="D71" t="n">
-        <v>9.043427945944051</v>
+        <v>8.991174332706928</v>
       </c>
     </row>
     <row r="72">
@@ -1435,13 +1435,13 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>59.63292256920052</v>
+        <v>59.26645686448219</v>
       </c>
       <c r="C72" t="n">
-        <v>21.01252596977152</v>
+        <v>20.94082998998629</v>
       </c>
       <c r="D72" t="n">
-        <v>9.087892641313879</v>
+        <v>9.043427945944051</v>
       </c>
     </row>
     <row r="73">
@@ -1449,13 +1449,13 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>60.02233359621375</v>
+        <v>59.63292256920052</v>
       </c>
       <c r="C73" t="n">
-        <v>21.07415316386459</v>
+        <v>21.01252596977152</v>
       </c>
       <c r="D73" t="n">
-        <v>9.127733440464759</v>
+        <v>9.087892641313879</v>
       </c>
     </row>
     <row r="74">
@@ -1463,13 +1463,13 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>60.47631625598591</v>
+        <v>60.02233359621375</v>
       </c>
       <c r="C74" t="n">
-        <v>21.1256526686337</v>
+        <v>21.07415316386459</v>
       </c>
       <c r="D74" t="n">
-        <v>9.159551578847921</v>
+        <v>9.127733440464759</v>
       </c>
     </row>
     <row r="75">
@@ -1477,13 +1477,13 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>60.91607109582968</v>
+        <v>60.47631625598591</v>
       </c>
       <c r="C75" t="n">
-        <v>21.14809533229691</v>
+        <v>21.1256526686337</v>
       </c>
       <c r="D75" t="n">
-        <v>9.171906336265319</v>
+        <v>9.159551578847918</v>
       </c>
     </row>
     <row r="76">
@@ -1491,13 +1491,13 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>61.38384502529808</v>
+        <v>60.91607109582968</v>
       </c>
       <c r="C76" t="n">
-        <v>21.16856214222842</v>
+        <v>21.14809533229691</v>
       </c>
       <c r="D76" t="n">
-        <v>9.183394083035985</v>
+        <v>9.171906336265319</v>
       </c>
     </row>
     <row r="77">
@@ -1505,13 +1505,13 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>61.85544099694409</v>
+        <v>61.38384502529808</v>
       </c>
       <c r="C77" t="n">
-        <v>21.18583109624282</v>
+        <v>21.16856214222842</v>
       </c>
       <c r="D77" t="n">
-        <v>9.193045246420093</v>
+        <v>9.183394083035983</v>
       </c>
     </row>
     <row r="78">
@@ -1519,13 +1519,13 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>62.26859360690816</v>
+        <v>61.85544099694409</v>
       </c>
       <c r="C78" t="n">
-        <v>21.14284063385893</v>
+        <v>21.18583109624282</v>
       </c>
       <c r="D78" t="n">
-        <v>9.162861775953081</v>
+        <v>9.193045246420093</v>
       </c>
     </row>
     <row r="79">
@@ -1533,13 +1533,13 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>62.66041605352635</v>
+        <v>62.26859360690816</v>
       </c>
       <c r="C79" t="n">
-        <v>21.11772302440378</v>
+        <v>21.14284063385893</v>
       </c>
       <c r="D79" t="n">
-        <v>9.143211963948081</v>
+        <v>9.162861775953079</v>
       </c>
     </row>
     <row r="80">
@@ -1547,13 +1547,13 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>63.07366641370174</v>
+        <v>62.66041605352635</v>
       </c>
       <c r="C80" t="n">
-        <v>21.12021119842745</v>
+        <v>21.11772302440378</v>
       </c>
       <c r="D80" t="n">
-        <v>9.13897132377819</v>
+        <v>9.143211963948083</v>
       </c>
     </row>
     <row r="81">
@@ -1561,13 +1561,13 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>63.44961320945672</v>
+        <v>63.07366641370174</v>
       </c>
       <c r="C81" t="n">
-        <v>21.15392707104822</v>
+        <v>21.12021119842745</v>
       </c>
       <c r="D81" t="n">
-        <v>9.15672377507142</v>
+        <v>9.13897132377819</v>
       </c>
     </row>
     <row r="82">
@@ -1575,13 +1575,13 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>63.822277684581</v>
+        <v>63.44961320945671</v>
       </c>
       <c r="C82" t="n">
-        <v>21.1973133875592</v>
+        <v>21.15392707104822</v>
       </c>
       <c r="D82" t="n">
-        <v>9.181038089353816</v>
+        <v>9.15672377507142</v>
       </c>
     </row>
     <row r="83">
@@ -1589,13 +1589,13 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>64.15236497221973</v>
+        <v>63.822277684581</v>
       </c>
       <c r="C83" t="n">
-        <v>21.17787576545952</v>
+        <v>21.1973133875592</v>
       </c>
       <c r="D83" t="n">
-        <v>9.167448417206195</v>
+        <v>9.181038089353816</v>
       </c>
     </row>
     <row r="84">
@@ -1603,13 +1603,13 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>64.49922503760756</v>
+        <v>64.15236497221973</v>
       </c>
       <c r="C84" t="n">
-        <v>21.12432782351846</v>
+        <v>21.17787576545951</v>
       </c>
       <c r="D84" t="n">
-        <v>9.128585362084602</v>
+        <v>9.167448417206195</v>
       </c>
     </row>
     <row r="85">
@@ -1617,13 +1617,13 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>64.84086976383274</v>
+        <v>64.49922503760756</v>
       </c>
       <c r="C85" t="n">
-        <v>21.03302160043915</v>
+        <v>21.12432782351846</v>
       </c>
       <c r="D85" t="n">
-        <v>9.062799827614791</v>
+        <v>9.128585362084602</v>
       </c>
     </row>
     <row r="86">
@@ -1631,13 +1631,13 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>65.09536802656611</v>
+        <v>64.84086976383274</v>
       </c>
       <c r="C86" t="n">
-        <v>20.9220943711591</v>
+        <v>21.03302160043915</v>
       </c>
       <c r="D86" t="n">
-        <v>8.987920512213027</v>
+        <v>9.062799827614791</v>
       </c>
     </row>
     <row r="87">
@@ -1645,13 +1645,13 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>65.26010038831167</v>
+        <v>65.09536802656611</v>
       </c>
       <c r="C87" t="n">
-        <v>20.72643244192033</v>
+        <v>20.9220943711591</v>
       </c>
       <c r="D87" t="n">
-        <v>8.860864432616522</v>
+        <v>8.987920512213027</v>
       </c>
     </row>
     <row r="88">
@@ -1659,13 +1659,13 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>65.45212900458236</v>
+        <v>65.26010038831167</v>
       </c>
       <c r="C88" t="n">
-        <v>20.50956041689618</v>
+        <v>20.72643244192033</v>
       </c>
       <c r="D88" t="n">
-        <v>8.716771242875305</v>
+        <v>8.860864432616523</v>
       </c>
     </row>
     <row r="89">
@@ -1673,13 +1673,13 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>65.63861848450607</v>
+        <v>65.45212900458236</v>
       </c>
       <c r="C89" t="n">
-        <v>20.28921011121728</v>
+        <v>20.50956041689617</v>
       </c>
       <c r="D89" t="n">
-        <v>8.568425057636677</v>
+        <v>8.716771242875305</v>
       </c>
     </row>
     <row r="90">
@@ -1687,13 +1687,13 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>65.82244528599641</v>
+        <v>65.63861848450607</v>
       </c>
       <c r="C90" t="n">
-        <v>20.05000027860697</v>
+        <v>20.28921011121728</v>
       </c>
       <c r="D90" t="n">
-        <v>8.413717505949212</v>
+        <v>8.568425057636677</v>
       </c>
     </row>
     <row r="91">
@@ -1701,13 +1701,13 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>66.00627208748676</v>
+        <v>65.82244528599641</v>
       </c>
       <c r="C91" t="n">
-        <v>19.81079044599665</v>
+        <v>20.05000027860697</v>
       </c>
       <c r="D91" t="n">
-        <v>8.259009954261742</v>
+        <v>8.413717505949212</v>
       </c>
     </row>
     <row r="92">
@@ -1715,13 +1715,13 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>66.25270194649836</v>
+        <v>66.00627208748676</v>
       </c>
       <c r="C92" t="n">
-        <v>19.59315764367345</v>
+        <v>19.81079044599665</v>
       </c>
       <c r="D92" t="n">
-        <v>8.119510598964384</v>
+        <v>8.259009954261741</v>
       </c>
     </row>
     <row r="93">
@@ -1729,13 +1729,13 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>66.5618749240442</v>
+        <v>66.25270194649836</v>
       </c>
       <c r="C93" t="n">
-        <v>19.31987029779209</v>
+        <v>19.59315764367345</v>
       </c>
       <c r="D93" t="n">
-        <v>7.954587118286048</v>
+        <v>8.119510598964384</v>
       </c>
     </row>
     <row r="94">
@@ -1743,13 +1743,13 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>66.97659821647866</v>
+        <v>66.5618749240442</v>
       </c>
       <c r="C94" t="n">
-        <v>19.00815574756177</v>
+        <v>19.31987029779209</v>
       </c>
       <c r="D94" t="n">
-        <v>7.769771637406508</v>
+        <v>7.954587118286046</v>
       </c>
     </row>
     <row r="95">
@@ -1757,13 +1757,13 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>67.3158312127298</v>
+        <v>66.97659821647866</v>
       </c>
       <c r="C95" t="n">
-        <v>18.694154058089</v>
+        <v>19.00815574756177</v>
       </c>
       <c r="D95" t="n">
-        <v>7.584796857970318</v>
+        <v>7.769771637406508</v>
       </c>
     </row>
     <row r="96">
@@ -1771,13 +1771,13 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>67.63184616551369</v>
+        <v>67.3158312127298</v>
       </c>
       <c r="C96" t="n">
-        <v>18.40316024081271</v>
+        <v>18.694154058089</v>
       </c>
       <c r="D96" t="n">
-        <v>7.411575626620393</v>
+        <v>7.584796857970318</v>
       </c>
     </row>
     <row r="97">
@@ -1785,13 +1785,13 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>67.94786111829758</v>
+        <v>67.63184616551369</v>
       </c>
       <c r="C97" t="n">
-        <v>18.11216642353642</v>
+        <v>18.40316024081271</v>
       </c>
       <c r="D97" t="n">
-        <v>7.238354395270465</v>
+        <v>7.411575626620393</v>
       </c>
     </row>
     <row r="98">
@@ -1799,13 +1799,13 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>68.26387607108148</v>
+        <v>67.94786111829758</v>
       </c>
       <c r="C98" t="n">
-        <v>17.82117260626013</v>
+        <v>18.11216642353642</v>
       </c>
       <c r="D98" t="n">
-        <v>7.06513316392054</v>
+        <v>7.238354395270465</v>
       </c>
     </row>
     <row r="99">
@@ -1813,13 +1813,13 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>68.57989102386537</v>
+        <v>68.26387607108148</v>
       </c>
       <c r="C99" t="n">
-        <v>17.53017878898384</v>
+        <v>17.82117260626013</v>
       </c>
       <c r="D99" t="n">
-        <v>6.891911932570616</v>
+        <v>7.06513316392054</v>
       </c>
     </row>
     <row r="100">
@@ -1827,12 +1827,26 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
+        <v>68.57989102386537</v>
+      </c>
+      <c r="C100" t="n">
+        <v>17.53017878898384</v>
+      </c>
+      <c r="D100" t="n">
+        <v>6.891911932570616</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
         <v>68.89590597664927</v>
       </c>
-      <c r="C100" t="n">
+      <c r="C101" t="n">
         <v>17.23918497170756</v>
       </c>
-      <c r="D100" t="n">
+      <c r="D101" t="n">
         <v>6.718690701220688</v>
       </c>
     </row>
